--- a/springMVC/src/main/resources/doc/springmvc流程图.xlsx
+++ b/springMVC/src/main/resources/doc/springmvc流程图.xlsx
@@ -4,18 +4,43 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="mvc流程" sheetId="1" r:id="rId1"/>
+    <sheet name="处理器流程" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <r>
+      <t>web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据绑定机制</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebDataBinder</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,6 +55,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -39,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -47,11 +84,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -59,6 +176,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1032,6 +1159,866 @@
           <a:ext cx="1343025" cy="233363"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009898" y="390525"/>
+          <a:ext cx="5391152" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>HTTP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>请求体（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>body</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）信息转换</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>HttpMessageConverter</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248025" y="1781176"/>
+          <a:ext cx="2457450" cy="1400174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>数据转换器</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648075" y="2619375"/>
+          <a:ext cx="1276350" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GenericConverter</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4467225" y="2133600"/>
+          <a:ext cx="904875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Formatter</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3371850" y="2124075"/>
+          <a:ext cx="895350" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Converter</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="3467100"/>
+          <a:ext cx="3895725" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>JavaPojo</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6010275" y="1762125"/>
+          <a:ext cx="1152525" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据验证器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Validator</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="圆角矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781925" y="1647826"/>
+          <a:ext cx="438150" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用控制器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4467225" y="1019175"/>
+          <a:ext cx="9525" cy="762001"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4476750" y="3181350"/>
+          <a:ext cx="0" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>157164</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6557964" y="3190878"/>
+          <a:ext cx="4761" cy="266697"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7162800" y="2466976"/>
+          <a:ext cx="619125" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7991475" y="1047750"/>
+          <a:ext cx="9525" cy="600076"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接箭头连接符 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="704850"/>
+          <a:ext cx="1304923" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接箭头连接符 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8401050" y="695325"/>
+          <a:ext cx="1057275" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -1347,21 +2334,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E10:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C9" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C7" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="5:10">
       <c r="H10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="5:10">
       <c r="F14" s="1">
         <v>2</v>
       </c>
@@ -1369,32 +2356,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="5:10">
       <c r="E16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="5:11">
       <c r="I19" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="5:11">
       <c r="E23" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="5:11">
       <c r="K24" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="5:11">
       <c r="G25" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="5:11">
       <c r="I26" s="1">
         <v>7</v>
       </c>
@@ -1405,4 +2392,290 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="P9:AK19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AX19" sqref="AX19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="9" spans="16:37" ht="15">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="7"/>
+    </row>
+    <row r="10" spans="16:37">
+      <c r="P10" s="8"/>
+      <c r="Q10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="9"/>
+    </row>
+    <row r="11" spans="16:37">
+      <c r="P11" s="8"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="9"/>
+    </row>
+    <row r="12" spans="16:37">
+      <c r="P12" s="8"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="9"/>
+    </row>
+    <row r="13" spans="16:37">
+      <c r="P13" s="8"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="9"/>
+    </row>
+    <row r="14" spans="16:37">
+      <c r="P14" s="8"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="9"/>
+    </row>
+    <row r="15" spans="16:37">
+      <c r="P15" s="8"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="9"/>
+    </row>
+    <row r="16" spans="16:37">
+      <c r="P16" s="8"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="9"/>
+    </row>
+    <row r="17" spans="16:37">
+      <c r="P17" s="8"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="9"/>
+    </row>
+    <row r="18" spans="16:37">
+      <c r="P18" s="8"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="9"/>
+    </row>
+    <row r="19" spans="16:37">
+      <c r="P19" s="10"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>